--- a/data/xlsx/2019-23.xlsx
+++ b/data/xlsx/2019-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m29605/Documents/github/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CA0560-61CD-234D-A483-5D56B8DE1EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AC4151-F980-5A4F-B32B-2F65D1DC46B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="11" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="226">
   <si>
     <t>team</t>
   </si>
@@ -624,9 +624,6 @@
   </si>
   <si>
     <t>16:30</t>
-  </si>
-  <si>
-    <t>00:00</t>
   </si>
   <si>
     <t>2019-11-09</t>
@@ -1198,9 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259AE2E4-7B6B-6445-98BD-C1C67B788931}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1657,7 +1652,7 @@
         <v>34</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>54</v>
@@ -1795,9 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511071BE-AAD4-6C41-8F7E-BD1772BC0148}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2154,7 +2147,7 @@
         <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>36</v>
@@ -2183,7 +2176,7 @@
         <v>99</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>55</v>
@@ -2212,7 +2205,7 @@
         <v>136</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>55</v>
@@ -2230,9 +2223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E6154-8859-C043-B168-2821FA04A09E}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2376,7 +2367,7 @@
         <v>173</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>54</v>
@@ -2585,9 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2A193F-55EA-C040-9E2A-5FD1F1728D8E}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2733,7 +2722,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>49</v>
@@ -2841,7 +2830,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>109</v>
@@ -2868,9 +2857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AFBF9A-812D-4342-874A-542172B45407}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3019,7 +3006,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>24</v>
@@ -3468,7 +3455,7 @@
         <v>136</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>55</v>
@@ -3521,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>61</v>
@@ -3627,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
@@ -3694,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>44</v>
@@ -3761,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>48</v>
@@ -3863,7 +3850,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>35</v>
@@ -3872,7 +3859,7 @@
         <v>136</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>54</v>
@@ -3925,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>61</v>
@@ -4031,7 +4018,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -4066,7 +4053,7 @@
         <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>35</v>
@@ -4104,7 +4091,7 @@
         <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -4177,7 +4164,7 @@
         <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -4215,7 +4202,7 @@
         <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -4247,7 +4234,7 @@
         <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>28</v>
@@ -4282,7 +4269,7 @@
         <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>97</v>
@@ -4320,7 +4307,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -4396,7 +4383,7 @@
         <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>35</v>
@@ -4431,7 +4418,7 @@
         <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>97</v>
@@ -4469,7 +4456,7 @@
         <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>43</v>
@@ -4501,7 +4488,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>43</v>
@@ -4533,7 +4520,7 @@
         <v>64</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>43</v>
@@ -4597,7 +4584,7 @@
         <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>28</v>
@@ -4606,7 +4593,7 @@
         <v>136</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>55</v>
@@ -4626,7 +4613,7 @@
         <v>63</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>52</v>
@@ -4635,7 +4622,7 @@
         <v>136</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>55</v>
@@ -4655,7 +4642,7 @@
         <v>64</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>47</v>
@@ -4664,7 +4651,7 @@
         <v>136</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>163</v>
@@ -4704,7 +4691,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
@@ -4726,9 +4713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7989B2-BAC5-3745-8E57-58EA1C27E48C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4763,7 +4748,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>61</v>
@@ -4869,7 +4854,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -4901,7 +4886,7 @@
         <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -4939,7 +4924,7 @@
         <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>34</v>
@@ -4977,7 +4962,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>49</v>
@@ -5015,7 +5000,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>4</v>
@@ -5050,7 +5035,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -5182,7 +5167,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>61</v>
@@ -5288,7 +5273,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -5326,7 +5311,7 @@
         <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>4</v>
@@ -5358,7 +5343,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>4</v>
@@ -5431,7 +5416,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -5464,9 +5449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40C3489-9253-7A43-8A63-CD8EB38EB36F}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5573,7 +5556,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -5606,7 +5589,7 @@
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
@@ -5688,8 +5671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085A852F-006B-BB47-AC16-88C3A7294D87}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6158,7 +6141,7 @@
         <v>99</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>36</v>
@@ -7276,7 +7259,7 @@
         <v>99</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>55</v>
@@ -7305,7 +7288,7 @@
         <v>135</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>55</v>
@@ -7334,7 +7317,7 @@
         <v>136</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>55</v>
@@ -8036,7 +8019,7 @@
         <v>99</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>55</v>
@@ -8065,7 +8048,7 @@
         <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>55</v>
@@ -8490,7 +8473,7 @@
         <v>135</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>55</v>

--- a/data/xlsx/2019-23.xlsx
+++ b/data/xlsx/2019-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m29605/Documents/github/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AC4151-F980-5A4F-B32B-2F65D1DC46B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB62215-96A0-5745-879E-11C1C7CF022D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="15" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="222">
   <si>
     <t>team</t>
   </si>
@@ -80,9 +80,6 @@
     <t>blue</t>
   </si>
   <si>
-    <t>Jay Shalatay</t>
-  </si>
-  <si>
     <t>Dan Negron</t>
   </si>
   <si>
@@ -395,12 +392,6 @@
     <t>16:50</t>
   </si>
   <si>
-    <t>Free Agent</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>2019-09-21</t>
   </si>
   <si>
@@ -539,9 +530,6 @@
     <t>2019-10-19</t>
   </si>
   <si>
-    <t>Jesse Lehmen</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -587,9 +575,6 @@
     <t>02:35</t>
   </si>
   <si>
-    <t>navy</t>
-  </si>
-  <si>
     <t>2019-10-26</t>
   </si>
   <si>
@@ -726,6 +711,9 @@
   </si>
   <si>
     <t>Milton Jones</t>
+  </si>
+  <si>
+    <t>Free Agent 2</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2145B8-1232-2147-8409-FA6ED5D20C3A}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1152,38 +1142,35 @@
     </row>
     <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1204,24 +1191,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1230,517 +1217,517 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -1751,34 +1738,34 @@
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1790,7 +1777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511071BE-AAD4-6C41-8F7E-BD1772BC0148}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1799,419 +1788,419 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2232,24 +2221,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -2258,312 +2247,312 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2576,7 +2565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2A193F-55EA-C040-9E2A-5FD1F1728D8E}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2585,267 +2576,267 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2866,602 +2857,602 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3482,24 +3473,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3508,104 +3499,104 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -3614,33 +3605,33 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -3649,30 +3640,30 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -3681,30 +3672,30 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -3713,33 +3704,33 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -3748,36 +3739,36 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -3786,86 +3777,86 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3877,7 +3868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B23BF85-A20C-8A47-85DD-16241037A7E3}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3886,822 +3879,822 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4722,24 +4715,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -4748,379 +4741,379 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5141,303 +5134,303 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5468,109 +5461,109 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -5578,41 +5571,41 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -5623,43 +5616,43 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5671,7 +5664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085A852F-006B-BB47-AC16-88C3A7294D87}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -5682,24 +5675,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -5708,490 +5701,490 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6214,294 +6207,294 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6530,24 +6523,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -6556,414 +6549,414 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6985,389 +6978,389 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -7389,300 +7382,300 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -7703,24 +7696,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -7729,332 +7722,332 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -8076,410 +8069,410 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/2019-23.xlsx
+++ b/data/xlsx/2019-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m29605/Documents/github/broomball/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB62215-96A0-5745-879E-11C1C7CF022D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A59BC-B74B-3B41-BF9C-FF469A598E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="15" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" activeTab="11" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -1182,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259AE2E4-7B6B-6445-98BD-C1C67B788931}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2212,7 +2212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E6154-8859-C043-B168-2821FA04A09E}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2362,7 +2364,7 @@
         <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>66</v>
@@ -2400,7 +2402,7 @@
         <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>66</v>
@@ -2438,7 +2440,7 @@
         <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>66</v>
@@ -2473,7 +2475,7 @@
         <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>66</v>
@@ -2508,7 +2510,7 @@
         <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>66</v>
@@ -2543,7 +2545,7 @@
         <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>66</v>
@@ -3868,7 +3870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B23BF85-A20C-8A47-85DD-16241037A7E3}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -5664,7 +5666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085A852F-006B-BB47-AC16-88C3A7294D87}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -6514,7 +6516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE30163A-D1B5-6047-9D24-FE29CEB3B714}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6969,7 +6971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0025FB3F-6E54-394F-BC29-D5589FDDB182}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8060,7 +8062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2BB97A-5564-9A42-B749-96F361397C9A}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/xlsx/2019-23.xlsx
+++ b/data/xlsx/2019-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A59BC-B74B-3B41-BF9C-FF469A598E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9943F1-04C9-9C4C-BF32-7C4E2584051B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" activeTab="11" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>gold</t>
   </si>
   <si>
-    <t>David Laux</t>
-  </si>
-  <si>
     <t>Brian Lin</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Bradford Neumann</t>
   </si>
   <si>
-    <t>Katy McVay</t>
-  </si>
-  <si>
     <t>David Horner</t>
   </si>
   <si>
@@ -332,9 +326,6 @@
     <t>04:34</t>
   </si>
   <si>
-    <t>Colin Barret</t>
-  </si>
-  <si>
     <t>purple</t>
   </si>
   <si>
@@ -714,6 +705,15 @@
   </si>
   <si>
     <t>Free Agent 2</t>
+  </si>
+  <si>
+    <t>Dave Laux</t>
+  </si>
+  <si>
+    <t>Katy Bright</t>
+  </si>
+  <si>
+    <t>Colin Barrett</t>
   </si>
 </sst>
 </file>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -1162,15 +1162,15 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1191,24 +1191,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1217,517 +1217,517 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -1738,34 +1738,34 @@
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="I26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1788,24 +1788,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1814,393 +1814,393 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2212,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E6154-8859-C043-B168-2821FA04A09E}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2223,24 +2223,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -2249,312 +2249,312 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2578,24 +2578,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -2604,241 +2604,241 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2859,24 +2859,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -2885,576 +2885,576 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3475,24 +3475,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3501,104 +3501,104 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -3607,33 +3607,33 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -3642,30 +3642,30 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -3674,30 +3674,30 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -3706,33 +3706,33 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -3741,36 +3741,36 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -3779,86 +3779,86 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3881,24 +3881,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -3907,796 +3907,796 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="I25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4717,24 +4717,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -4743,379 +4743,379 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5136,24 +5136,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -5162,277 +5162,277 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5444,7 +5444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40C3489-9253-7A43-8A63-CD8EB38EB36F}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5466,106 +5468,106 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -5573,41 +5575,41 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -5618,43 +5620,43 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5677,24 +5679,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -5703,490 +5705,490 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6209,24 +6211,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -6235,268 +6237,268 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6525,24 +6527,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -6551,414 +6553,414 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6980,24 +6982,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -7006,363 +7008,363 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7384,24 +7386,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -7410,274 +7412,274 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -7698,24 +7700,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -7724,332 +7726,332 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -8071,24 +8073,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -8097,384 +8099,384 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/2019-23.xlsx
+++ b/data/xlsx/2019-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9943F1-04C9-9C4C-BF32-7C4E2584051B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A9A3B7-262B-7141-8731-8984B2D611DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
   </bookViews>
@@ -698,9 +698,6 @@
     <t>12:20</t>
   </si>
   <si>
-    <t>Michelle LaFramboise</t>
-  </si>
-  <si>
     <t>Milton Jones</t>
   </si>
   <si>
@@ -714,6 +711,9 @@
   </si>
   <si>
     <t>Colin Barrett</t>
+  </si>
+  <si>
+    <t>Michelle Nudi</t>
   </si>
 </sst>
 </file>
@@ -1162,12 +1162,12 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>92</v>
@@ -1324,7 +1324,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>47</v>
@@ -1595,7 +1595,7 @@
         <v>153</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>31</v>
@@ -1639,7 +1639,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>51</v>
@@ -2358,7 +2358,7 @@
         <v>166</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>51</v>
@@ -2715,7 +2715,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>46</v>
@@ -2823,7 +2823,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>105</v>
@@ -2999,7 +2999,7 @@
         <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>21</v>
@@ -3034,7 +3034,7 @@
         <v>126</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>51</v>
@@ -4089,7 +4089,7 @@
         <v>191</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>32</v>
@@ -4349,7 +4349,7 @@
         <v>93</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>52</v>
@@ -4422,7 +4422,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>52</v>
@@ -4925,7 +4925,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
@@ -5344,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>23</v>
@@ -5485,7 +5485,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -5507,7 +5507,7 @@
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -5550,10 +5550,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -5586,7 +5586,7 @@
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>51</v>
@@ -5852,7 +5852,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>31</v>
@@ -7562,7 +7562,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>40</v>
@@ -8374,7 +8374,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>52</v>

--- a/data/xlsx/2019-23.xlsx
+++ b/data/xlsx/2019-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A9A3B7-262B-7141-8731-8984B2D611DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F34CF03-5641-D242-8C27-73F2C4B4027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" firstSheet="2" activeTab="2" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="222">
   <si>
     <t>team</t>
   </si>
@@ -794,9 +794,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -834,7 +834,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -940,7 +940,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1082,7 +1082,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1182,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259AE2E4-7B6B-6445-98BD-C1C67B788931}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1736,38 +1736,7 @@
     <row r="22" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
+    <row r="26" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1777,9 +1746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511071BE-AAD4-6C41-8F7E-BD1772BC0148}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2212,9 +2179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E6154-8859-C043-B168-2821FA04A09E}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2850,7 +2815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AFBF9A-812D-4342-874A-542172B45407}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3448,7 +3415,7 @@
         <v>130</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>52</v>
@@ -3870,9 +3837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B23BF85-A20C-8A47-85DD-16241037A7E3}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4708,7 +4673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7989B2-BAC5-3745-8E57-58EA1C27E48C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5444,7 +5409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40C3489-9253-7A43-8A63-CD8EB38EB36F}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -5668,9 +5633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085A852F-006B-BB47-AC16-88C3A7294D87}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6973,7 +6936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0025FB3F-6E54-394F-BC29-D5589FDDB182}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7691,7 +7654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20257B6D-10DD-1C4F-AB40-281D4A0D8EA3}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/xlsx/2019-23.xlsx
+++ b/data/xlsx/2019-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F34CF03-5641-D242-8C27-73F2C4B4027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90136440-9F0A-6F4A-82BC-4D701D15807A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" firstSheet="2" activeTab="2" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" firstSheet="2" activeTab="9" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -707,13 +707,13 @@
     <t>Dave Laux</t>
   </si>
   <si>
-    <t>Katy Bright</t>
-  </si>
-  <si>
     <t>Colin Barrett</t>
   </si>
   <si>
     <t>Michelle Nudi</t>
+  </si>
+  <si>
+    <t>Katy Meyvn</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259AE2E4-7B6B-6445-98BD-C1C67B788931}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1324,7 +1326,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>47</v>
@@ -1595,7 +1597,7 @@
         <v>153</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>31</v>
@@ -1639,7 +1641,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>51</v>
@@ -2680,7 +2682,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>46</v>
@@ -2788,7 +2790,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>105</v>
@@ -2966,7 +2968,7 @@
         <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>21</v>
@@ -4314,7 +4316,7 @@
         <v>93</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>52</v>
@@ -4387,7 +4389,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>52</v>
@@ -5450,7 +5452,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -5472,7 +5474,7 @@
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -5551,7 +5553,7 @@
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>51</v>
@@ -5633,7 +5635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085A852F-006B-BB47-AC16-88C3A7294D87}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5815,7 +5817,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>31</v>
@@ -8337,7 +8339,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>52</v>

--- a/data/xlsx/2019-23.xlsx
+++ b/data/xlsx/2019-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90136440-9F0A-6F4A-82BC-4D701D15807A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4652AE-2EDD-EC44-8EBB-85C42A14C980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" firstSheet="2" activeTab="9" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{9218B5B1-21CB-8944-9BB6-6604864D8F64}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -1182,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259AE2E4-7B6B-6445-98BD-C1C67B788931}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2818,7 +2818,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5411,8 +5411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40C3489-9253-7A43-8A63-CD8EB38EB36F}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7656,7 +7656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20257B6D-10DD-1C4F-AB40-281D4A0D8EA3}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
